--- a/02-intermediate/33-RealStateFinderBot/aptos.xlsx
+++ b/02-intermediate/33-RealStateFinderBot/aptos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
   <si>
     <t>titles</t>
   </si>
@@ -25,9 +25,93 @@
     <t>links</t>
   </si>
   <si>
+    <t>Apartamento 3 Quartos, 1 Suíte, 81m², 2 vagas.</t>
+  </si>
+  <si>
+    <t>Floris Bosque Residencial</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:RLOC966</t>
+  </si>
+  <si>
+    <t>Alugo lindo ap 3 quartos tirol freguesia 1500</t>
+  </si>
+  <si>
+    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 1.580,00</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:8656</t>
+  </si>
+  <si>
+    <t>Apartamento</t>
+  </si>
+  <si>
+    <t>Apartamento em Curicica, Rio De Janeiro/RJ de 70m² 3 quartos para locação R$ 1.600,00/mes</t>
+  </si>
+  <si>
+    <t>Lindo Apartamento com 3 quartos - 100m²- Freguesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento na Freguesia bem localizado </t>
+  </si>
+  <si>
+    <t>Beach Plus | apartamento de 3  quartos com suíte Próximo ao Projac| Real Imóveis RJ</t>
+  </si>
+  <si>
+    <t>Excelente Aptº 92m² Freguesia/RJ</t>
+  </si>
+  <si>
+    <t>Lindo 2Q + escritorio montado melhor ponto Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 88 m² por R$ 1.700,00/mês - Freguesia (Jacarepa</t>
+  </si>
+  <si>
+    <t>Lindo Apê 3 qts com 1 suíte - Freguesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand family 03 quartos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhor Salão Três quartos Freguesia suite com Hidro e vaga de garagem </t>
+  </si>
+  <si>
+    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 1.750,00</t>
+  </si>
+  <si>
+    <t>Apartamento - BARRA DA TIJUCA - R$ 1.800,00</t>
+  </si>
+  <si>
+    <t>Beach Plus | Apartamento de 3 quartos com suíte próximo Transolímpica | Real Imóveis RJ</t>
+  </si>
+  <si>
+    <t>Apartamento Condomínio Clube</t>
+  </si>
+  <si>
+    <t>Cobertura Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:FRAP30081</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, cod:lc0183101</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:AL376</t>
+  </si>
+  <si>
+    <t>404.3- Estrelas Full Condominium, lindo 3 quartos!</t>
+  </si>
+  <si>
+    <t>Freguesia. Lindo 3 quartos mobiliado com garagem. Perto de tudo.</t>
+  </si>
+  <si>
     <t>Excelente apartamento na Freguesia /Jacarepaguá</t>
   </si>
   <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:4159</t>
+  </si>
+  <si>
     <t>Excelente apt. 03 quartos ( 01 suíte) - Freguesia!</t>
   </si>
   <si>
@@ -37,27 +121,63 @@
     <t>Aluguel -  Apartamento com 3 quartos em Jacarepaguá</t>
   </si>
   <si>
+    <t>Apartamento 3 quartos na Rua Aroazes vista livre e em porcelanato no Villas da Barra</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 quartos na Freguesia</t>
+  </si>
+  <si>
     <t>Rio2 | Vista Lagoa e Lazer | 3Qtos | Armários Planejados | Andar Alto</t>
   </si>
   <si>
     <t>Apartamento 3 quartos em condomínio com infraestrutura completa</t>
   </si>
   <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:AL1309</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:8084</t>
+  </si>
+  <si>
     <t>Barra da Tijuca: R$ 2.300,00</t>
   </si>
   <si>
+    <t>Apartamento de 3 quartos mobiliado na Freguesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento 4 quartos na Freguesia Jacarepaguá Rua Araguaia </t>
+  </si>
+  <si>
     <t>Apartamento para aluguel e venda na Rua Potiguara, Freguesia</t>
   </si>
   <si>
+    <t>Apê 3 Quartos com 1 Suíte e Varanda na Freguesia - 84m²</t>
+  </si>
+  <si>
     <t>Apartamento - BARRA DA TIJUCA - R$ 2.500,00</t>
   </si>
   <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:MIA3AP15256</t>
+  </si>
+  <si>
     <t>Rio 2 - Gênova</t>
   </si>
   <si>
     <t>Apartamento 3 suítes - Freguesia</t>
   </si>
   <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:RLAP30311</t>
+  </si>
+  <si>
+    <t>Excelente Oportunidade no Village Vert, 02 quartos.</t>
+  </si>
+  <si>
+    <t>Ressi. Union Home 3Qts 97m² Aluguel e Venda na Barra</t>
+  </si>
+  <si>
+    <t>Raridade Aroazes / Sol da manha / Vista Parque Olimpico</t>
+  </si>
+  <si>
     <t>Apartamento para Locação em Rio de Janeiro, Barra da Tijuca, 3 dormitórios, 1 suíte, 2 ban</t>
   </si>
   <si>
@@ -76,6 +196,9 @@
     <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
   </si>
   <si>
+    <t>Vendo ou alugo apartamento no Estrelas full</t>
+  </si>
+  <si>
     <t>Cobertura</t>
   </si>
   <si>
@@ -88,9 +211,6 @@
     <t>Apartamento 4 quartos, 130 m² , 2 vagas na garagem - Rua Araguaia, Freguesia</t>
   </si>
   <si>
-    <t>Apartamento</t>
-  </si>
-  <si>
     <t>RG(Grand village) cobertura com 3 quartos</t>
   </si>
   <si>
@@ -148,15 +268,99 @@
     <t>Apartamento para alugar com 4 dormitórios cod:87-ra loc ve_2-1031928</t>
   </si>
   <si>
+    <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
+  </si>
+  <si>
     <t>Rio de Janeiro, Jacarepaguá</t>
   </si>
   <si>
-    <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-1-suite-81m-2-vagas-898421606</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/floris-bosque-residencial-894716863</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-rloc966-889962642</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-lindo-ap-3-quartos-tirol-freguesia-1500-795099404</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-1-580-00-722840816</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-8656-898739927</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-898644694</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-em-curicica-rio-de-janeiro-rj-de-70m-3-quartos-para-locacao-r-1-600-00-mes-895168751</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-apartamento-com-3-quartos-100m-freguesia-894970917</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-na-freguesia-bem-localizado-886696644</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/beach-plus-apartamento-de-3-quartos-com-suite-proximo-ao-projac-real-imoveis-rj-856461555</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-92m-freguesia-rj-856769866</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-2q-escritorio-montado-melhor-ponto-freguesia-891054096</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-88-m-por-r-1-700-00-mes-freguesia-jacarepa-824993692</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-ape-3-qts-com-1-suite-freguesia-879547988</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/grand-family-03-quartos-875415782</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/melhor-salao-tres-quartos-freguesia-suite-com-hidro-e-vaga-de-garagem-892497445</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-1-750-00-722841201</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-1-800-00-891351951</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/beach-plus-apartamento-de-3-quartos-com-suite-proximo-transolimpica-real-imoveis-rj-822331846</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-condominio-clube-887511868</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-freguesia-858572853</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-frap30081-806310575</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-cod-lc0183101-845803718</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al376-896639886</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/404-3-estrelas-full-condominium-lindo-3-quartos-896341310</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-3-quartos-mobiliado-com-garagem-perto-de-tudo-887708670</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-na-freguesia-jacarepagua-837080205</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-4159-884047617</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-03-quartos-01-suite-freguesia-634868811</t>
   </si>
   <si>
@@ -166,27 +370,63 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-apartamento-com-3-quartos-em-jacarepagua-892550725</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-na-rua-aroazes-vista-livre-e-em-porcelanato-no-villas-da-barra-872236762</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-na-freguesia-882814696</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio2-vista-lagoa-e-lazer-3qtos-armarios-planejados-andar-alto-892163418</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-em-condominio-com-infraestrutura-completa-887185040</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al1309-897134633</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-8084-891981750</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/barra-da-tijuca-r-2-300-00-885715690</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-mobiliado-na-freguesia-766121275</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-na-freguesia-jacarepagua-rua-araguaia-886370392</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-aluguel-e-venda-na-rua-potiguara-freguesia-883314464</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ape-3-quartos-com-1-suite-e-varanda-na-freguesia-84m-883252174</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-2-500-00-898353409</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-mia3ap15256-873880211</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-2-genova-800773986</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-suites-freguesia-894885507</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-rlap30311-889150920</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-oportunidade-no-village-vert-02-quartos-877573304</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ressi-union-home-3qts-97m-aluguel-e-venda-na-barra-784774525</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/raridade-aroazes-sol-da-manha-vista-parque-olimpico-898507379</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-barra-da-tijuca-3-dormitorios-1-suite-2-ban-788825439</t>
   </si>
   <si>
@@ -203,6 +443,9 @@
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-linda-cobertura-com-3-quartos-771069465</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/vendo-ou-alugo-apartamento-no-estrelas-full-886524438</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-872032752</t>
@@ -645,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -684,10 +927,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -698,10 +941,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -712,10 +955,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -726,10 +969,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -740,10 +983,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -754,10 +997,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -768,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -782,10 +1025,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -796,10 +1039,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -810,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -824,10 +1067,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -838,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -852,10 +1095,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -866,10 +1109,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -880,10 +1123,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -894,10 +1137,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -908,10 +1151,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -922,10 +1165,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -936,10 +1179,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -950,10 +1193,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -964,10 +1207,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -978,10 +1221,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -992,10 +1235,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1006,10 +1249,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1020,10 +1263,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1034,10 +1277,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1048,10 +1291,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1062,10 +1305,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1076,10 +1319,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1090,10 +1333,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1104,10 +1347,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1118,10 +1361,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1132,10 +1375,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1146,10 +1389,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1160,10 +1403,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1174,10 +1417,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1188,10 +1431,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1202,10 +1445,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1216,10 +1459,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1230,10 +1473,584 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>86</v>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +2096,47 @@
     <hyperlink ref="D40" r:id="rId39"/>
     <hyperlink ref="D41" r:id="rId40"/>
     <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02-intermediate/33-RealStateFinderBot/aptos.xlsx
+++ b/02-intermediate/33-RealStateFinderBot/aptos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
   <si>
     <t>titles</t>
   </si>
@@ -25,91 +25,199 @@
     <t>links</t>
   </si>
   <si>
-    <t>Apartamento 3 Quartos, 1 Suíte, 81m², 2 vagas.</t>
-  </si>
-  <si>
-    <t>Floris Bosque Residencial</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:RLOC966</t>
-  </si>
-  <si>
-    <t>Alugo lindo ap 3 quartos tirol freguesia 1500</t>
-  </si>
-  <si>
-    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 1.580,00</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:8656</t>
+    <t>Rio2 | Vista Lagoa e Lazer | 3Qtos | Armários Planejados | Andar Alto</t>
+  </si>
+  <si>
+    <t>Apartamento 3 quartos em condomínio com infraestrutura completa</t>
+  </si>
+  <si>
+    <t>Raridade Aroazes / Sol da manha / Vista Parque Olimpico</t>
+  </si>
+  <si>
+    <t>Apartamento - BARRA DA TIJUCA - R$ 2.500,00</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:AL1309</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:FRAP30081</t>
+  </si>
+  <si>
+    <t>Rua Germiniano de Goies /Apartamento com 3 dormitórios para alugar, 143 m² por R$ 3.500/mê</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:AL376</t>
+  </si>
+  <si>
+    <t>404.3- Estrelas Full Condominium, lindo 3 quartos!</t>
+  </si>
+  <si>
+    <t>Apartamento 4 quartos, 130 m² , 2 vagas na garagem - Rua Araguaia, Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento para Locação em Rio de Janeiro, Barra da Tijuca, 3 dormitórios, 1 suíte, 2 ban</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 88 m² por R$ 1.700,00/mês - Freguesia (Jacarepa</t>
+  </si>
+  <si>
+    <t>Excelente Cobertura 4 qts na Freguesia! DOIS MESES DE DEPÓSITO!!</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, cod:lc0183101</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:MIA3AP15256</t>
+  </si>
+  <si>
+    <t>Rio 2 - Gênova</t>
+  </si>
+  <si>
+    <t>Apartamento 3 suítes - Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento - BARRA DA TIJUCA - R$ 1.800,00</t>
+  </si>
+  <si>
+    <t>Lindo Apê 3 qts com 1 suíte - Freguesia</t>
+  </si>
+  <si>
+    <t>Aluguel -  Apartamento com 3 quartos em Jacarepaguá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhor Salão Três quartos Freguesia suite com Hidro e vaga de garagem </t>
+  </si>
+  <si>
+    <t>Aluguel -Rio 2</t>
+  </si>
+  <si>
+    <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500/mês - Freguesia (Jacarepaguá)</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:8084</t>
+  </si>
+  <si>
+    <t>Apartamento Freguesia cobertura 2/3 quartos</t>
+  </si>
+  <si>
+    <t>Lindo 2Q + escritorio montado melhor ponto Freguesia</t>
+  </si>
+  <si>
+    <t>Beach Plus | Apartamento de 3 quartos com suíte próximo Transolímpica | Real Imóveis RJ</t>
+  </si>
+  <si>
+    <t>Apartamento 3 quartos na Rua Aroazes vista livre e em porcelanato no Villas da Barra</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:RLAP30311</t>
+  </si>
+  <si>
+    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 1.750,00</t>
+  </si>
+  <si>
+    <t>cobertura duplex para locação via flamboyant</t>
+  </si>
+  <si>
+    <t>Freguesia. Lindo 3 quartos mobiliado com garagem. Perto de tudo.</t>
+  </si>
+  <si>
+    <t>Apartamento Condomínio Clube</t>
+  </si>
+  <si>
+    <t>Excelente apartamento na Freguesia /Jacarepaguá</t>
+  </si>
+  <si>
+    <t>Vendo ou alugo apartamento no Estrelas full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento 4 quartos na Freguesia Jacarepaguá Rua Araguaia </t>
+  </si>
+  <si>
+    <t>Barra da Tijuca: R$ 2.300,00</t>
+  </si>
+  <si>
+    <t>Cobertura Freguesia</t>
+  </si>
+  <si>
+    <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500,00/mês - Freguesia (Jacarepag</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:4159</t>
+  </si>
+  <si>
+    <t>Apartamento para aluguel e venda na Rua Potiguara, Freguesia</t>
+  </si>
+  <si>
+    <t>Apê 3 Quartos com 1 Suíte e Varanda na Freguesia - 84m²</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 quartos na Freguesia</t>
+  </si>
+  <si>
+    <t>Freguesia lindo apartamento 4 quartos oportunidade única</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO - Cidade Jardim - Reserva Jardim - varandão, 3qtos,</t>
+  </si>
+  <si>
+    <t>Excelente Oportunidade no Village Vert, 02 quartos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand family 03 quartos </t>
+  </si>
+  <si>
+    <t>Apartamento de 3 quartos mobiliado na Freguesia</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 4 dormitórios cod:33283</t>
+  </si>
+  <si>
+    <t>Cobertura com 4 dormitórios, 211 m² - Freguesia (Jacarepaguá) - Rio de Janeiro/RJ</t>
+  </si>
+  <si>
+    <t>ALUGA COBERTURAS DUPLEX DE 4 QUARTOS COM ATÉ 3 SUÍTES NA ESTRADA DO BANANAL, FREGUESIA.</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar, 105 m² por R$ 2.800,00 - Freguesia (Jacarepaguá) - Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>RG(Village vert) Cobertura com 4 suítes</t>
+  </si>
+  <si>
+    <t>RG(Grand village) cobertura com 3 quartos</t>
+  </si>
+  <si>
+    <t>ME. Alugo Cobertura de Duplex de 3 qts c/ 2 Vgas na Barra!!!</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 4 dormitórios cod:87-ra loc ve_2-1031928</t>
+  </si>
+  <si>
+    <t>Ressi. Union Home 3Qts 97m² Aluguel e Venda na Barra</t>
   </si>
   <si>
     <t>Apartamento</t>
   </si>
   <si>
-    <t>Apartamento em Curicica, Rio De Janeiro/RJ de 70m² 3 quartos para locação R$ 1.600,00/mes</t>
-  </si>
-  <si>
-    <t>Lindo Apartamento com 3 quartos - 100m²- Freguesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento na Freguesia bem localizado </t>
-  </si>
-  <si>
-    <t>Beach Plus | apartamento de 3  quartos com suíte Próximo ao Projac| Real Imóveis RJ</t>
-  </si>
-  <si>
-    <t>Excelente Aptº 92m² Freguesia/RJ</t>
-  </si>
-  <si>
-    <t>Lindo 2Q + escritorio montado melhor ponto Freguesia</t>
-  </si>
-  <si>
-    <t>Apartamento com 3 dormitórios para alugar, 88 m² por R$ 1.700,00/mês - Freguesia (Jacarepa</t>
-  </si>
-  <si>
-    <t>Lindo Apê 3 qts com 1 suíte - Freguesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand family 03 quartos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melhor Salão Três quartos Freguesia suite com Hidro e vaga de garagem </t>
-  </si>
-  <si>
-    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 1.750,00</t>
-  </si>
-  <si>
-    <t>Apartamento - BARRA DA TIJUCA - R$ 1.800,00</t>
-  </si>
-  <si>
-    <t>Beach Plus | Apartamento de 3 quartos com suíte próximo Transolímpica | Real Imóveis RJ</t>
-  </si>
-  <si>
-    <t>Apartamento Condomínio Clube</t>
-  </si>
-  <si>
-    <t>Cobertura Freguesia</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:FRAP30081</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, cod:lc0183101</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:AL376</t>
-  </si>
-  <si>
-    <t>404.3- Estrelas Full Condominium, lindo 3 quartos!</t>
-  </si>
-  <si>
-    <t>Freguesia. Lindo 3 quartos mobiliado com garagem. Perto de tudo.</t>
-  </si>
-  <si>
-    <t>Excelente apartamento na Freguesia /Jacarepaguá</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:4159</t>
+    <t>Freguesia, Estr do Bananal, Cond Village Florença, cobertura duplex 3 quartos com total la</t>
+  </si>
+  <si>
+    <t>ME. Alugo Cobertura 4 qts, 3 Suítes c/ 187m² na Freguesia!!!!</t>
+  </si>
+  <si>
+    <t>RG( Village Florença) Alugo ou vendo cobertura na Freguesia</t>
+  </si>
+  <si>
+    <t>RG alugo ou vendo lindo cobertura com 4 quartos</t>
+  </si>
+  <si>
+    <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento com 4 dormitórios para alugar, 150 m² por r$ 4.100,00/mês - barra da tijuca - </t>
   </si>
   <si>
     <t>Excelente apt. 03 quartos ( 01 suíte) - Freguesia!</t>
@@ -118,247 +226,214 @@
     <t>Apartamento com 3 dormitórios para alugar, 94 m² - Freguesia (Jacarepaguá) - Rio de Janeir</t>
   </si>
   <si>
-    <t>Aluguel -  Apartamento com 3 quartos em Jacarepaguá</t>
-  </si>
-  <si>
-    <t>Apartamento 3 quartos na Rua Aroazes vista livre e em porcelanato no Villas da Barra</t>
-  </si>
-  <si>
-    <t>Apartamento de 3 quartos na Freguesia</t>
-  </si>
-  <si>
-    <t>Rio2 | Vista Lagoa e Lazer | 3Qtos | Armários Planejados | Andar Alto</t>
-  </si>
-  <si>
-    <t>Apartamento 3 quartos em condomínio com infraestrutura completa</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:AL1309</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:8084</t>
-  </si>
-  <si>
-    <t>Barra da Tijuca: R$ 2.300,00</t>
-  </si>
-  <si>
-    <t>Apartamento de 3 quartos mobiliado na Freguesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento 4 quartos na Freguesia Jacarepaguá Rua Araguaia </t>
-  </si>
-  <si>
-    <t>Apartamento para aluguel e venda na Rua Potiguara, Freguesia</t>
-  </si>
-  <si>
-    <t>Apê 3 Quartos com 1 Suíte e Varanda na Freguesia - 84m²</t>
-  </si>
-  <si>
-    <t>Apartamento - BARRA DA TIJUCA - R$ 2.500,00</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:MIA3AP15256</t>
-  </si>
-  <si>
-    <t>Rio 2 - Gênova</t>
-  </si>
-  <si>
-    <t>Apartamento 3 suítes - Freguesia</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:RLAP30311</t>
-  </si>
-  <si>
-    <t>Excelente Oportunidade no Village Vert, 02 quartos.</t>
-  </si>
-  <si>
-    <t>Ressi. Union Home 3Qts 97m² Aluguel e Venda na Barra</t>
-  </si>
-  <si>
-    <t>Raridade Aroazes / Sol da manha / Vista Parque Olimpico</t>
-  </si>
-  <si>
-    <t>Apartamento para Locação em Rio de Janeiro, Barra da Tijuca, 3 dormitórios, 1 suíte, 2 ban</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 4 dormitórios cod:33283</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar, 105 m² por R$ 2.800,00 - Freguesia (Jacarepaguá) - Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>cobertura duplex para locação via flamboyant</t>
-  </si>
-  <si>
-    <t>Freguesia lindo apartamento 4 quartos oportunidade única</t>
-  </si>
-  <si>
-    <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
-  </si>
-  <si>
-    <t>Vendo ou alugo apartamento no Estrelas full</t>
-  </si>
-  <si>
-    <t>Cobertura</t>
-  </si>
-  <si>
-    <t>RG alugo ou vendo lindo cobertura com 4 quartos</t>
+    <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 4.000,00/mês - Freguesia (Jacarep</t>
   </si>
   <si>
     <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 3.200/mês - Freguesia (Jacarepagu</t>
   </si>
   <si>
-    <t>Apartamento 4 quartos, 130 m² , 2 vagas na garagem - Rua Araguaia, Freguesia</t>
-  </si>
-  <si>
-    <t>RG(Grand village) cobertura com 3 quartos</t>
-  </si>
-  <si>
-    <t>Rua Germiniano de Goies /Apartamento com 3 dormitórios para alugar, 143 m² por R$ 3.500/mê</t>
-  </si>
-  <si>
-    <t>Aluguel -Rio 2</t>
-  </si>
-  <si>
-    <t>Apartamento Freguesia cobertura 2/3 quartos</t>
-  </si>
-  <si>
-    <t>Freguesia, Estr do Bananal, Cond Village Florença, cobertura duplex 3 quartos com total la</t>
-  </si>
-  <si>
-    <t>RG( Village Florença) Alugo ou vendo cobertura na Freguesia</t>
-  </si>
-  <si>
     <t>Apartamento com 3 dormitórios para alugar, 190 m² por R$ 3.500,00/mês - Freguesia (Jacarep</t>
   </si>
   <si>
-    <t>LOCAÇÃO - Cidade Jardim - Reserva Jardim - varandão, 3qtos,</t>
-  </si>
-  <si>
-    <t>Excelente Cobertura 4 qts na Freguesia! DOIS MESES DE DEPÓSITO!!</t>
-  </si>
-  <si>
-    <t>ME. Alugo Cobertura de Duplex de 3 qts c/ 2 Vgas na Barra!!!</t>
-  </si>
-  <si>
-    <t>ME. Alugo Cobertura 4 qts, 3 Suítes c/ 187m² na Freguesia!!!!</t>
-  </si>
-  <si>
-    <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 4.000,00/mês - Freguesia (Jacarep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento com 4 dormitórios para alugar, 150 m² por r$ 4.100,00/mês - barra da tijuca - </t>
-  </si>
-  <si>
-    <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500/mês - Freguesia (Jacarepaguá)</t>
-  </si>
-  <si>
-    <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500,00/mês - Freguesia (Jacarepag</t>
-  </si>
-  <si>
-    <t>Cobertura com 4 dormitórios, 211 m² - Freguesia (Jacarepaguá) - Rio de Janeiro/RJ</t>
-  </si>
-  <si>
-    <t>ALUGA COBERTURAS DUPLEX DE 4 QUARTOS COM ATÉ 3 SUÍTES NA ESTRADA DO BANANAL, FREGUESIA.</t>
-  </si>
-  <si>
-    <t>RG(Village vert) Cobertura com 4 suítes</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 4 dormitórios cod:87-ra loc ve_2-1031928</t>
+    <t>Rio de Janeiro, Jacarepaguá</t>
   </si>
   <si>
     <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
   </si>
   <si>
-    <t>Rio de Janeiro, Jacarepaguá</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-1-suite-81m-2-vagas-898421606</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/floris-bosque-residencial-894716863</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-rloc966-889962642</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-lindo-ap-3-quartos-tirol-freguesia-1500-795099404</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-1-580-00-722840816</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-8656-898739927</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-898644694</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-em-curicica-rio-de-janeiro-rj-de-70m-3-quartos-para-locacao-r-1-600-00-mes-895168751</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-apartamento-com-3-quartos-100m-freguesia-894970917</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-na-freguesia-bem-localizado-886696644</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/beach-plus-apartamento-de-3-quartos-com-suite-proximo-ao-projac-real-imoveis-rj-856461555</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-92m-freguesia-rj-856769866</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio2-vista-lagoa-e-lazer-3qtos-armarios-planejados-andar-alto-892163418</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-em-condominio-com-infraestrutura-completa-887185040</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/raridade-aroazes-sol-da-manha-vista-parque-olimpico-898507379</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-2-500-00-898353409</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al1309-897134633</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-frap30081-806310575</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rua-germiniano-de-goies-apartamento-com-3-dormitorios-para-alugar-143-m-por-r-3-500-me-887520408</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al376-896639886</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/404-3-estrelas-full-condominium-lindo-3-quartos-896341310</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-130-m-2-vagas-na-garagem-rua-araguaia-freguesia-896322909</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-barra-da-tijuca-3-dormitorios-1-suite-2-ban-788825439</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-88-m-por-r-1-700-00-mes-freguesia-jacarepa-824993692</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-cobertura-4-qts-na-freguesia-dois-meses-de-deposito-878196023</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-cod-lc0183101-845803718</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-mia3ap15256-873880211</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-2-genova-800773986</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-suites-freguesia-894885507</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-1-800-00-891351951</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-ape-3-qts-com-1-suite-freguesia-879547988</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-apartamento-com-3-quartos-em-jacarepagua-892550725</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/melhor-salao-tres-quartos-freguesia-suite-com-hidro-e-vaga-de-garagem-892497445</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-rio-2-892379958</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-mes-freguesia-jacarepagua-892378865</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-8084-891981750</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-cobertura-2-3-quartos-815380931</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-2q-escritorio-montado-melhor-ponto-freguesia-891054096</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-88-m-por-r-1-700-00-mes-freguesia-jacarepa-824993692</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-ape-3-qts-com-1-suite-freguesia-879547988</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/beach-plus-apartamento-de-3-quartos-com-suite-proximo-transolimpica-real-imoveis-rj-822331846</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-na-rua-aroazes-vista-livre-e-em-porcelanato-no-villas-da-barra-872236762</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-rlap30311-889150920</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-1-750-00-722841201</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-duplex-para-locacao-via-flamboyant-887725482</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-3-quartos-mobiliado-com-garagem-perto-de-tudo-887708670</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-condominio-clube-887511868</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-na-freguesia-jacarepagua-837080205</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/vendo-ou-alugo-apartamento-no-estrelas-full-886524438</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-na-freguesia-jacarepagua-rua-araguaia-886370392</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/barra-da-tijuca-r-2-300-00-885715690</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-freguesia-858572853</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-00-mes-freguesia-jacarepag-884381234</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-4159-884047617</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-aluguel-e-venda-na-rua-potiguara-freguesia-883314464</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ape-3-quartos-com-1-suite-e-varanda-na-freguesia-84m-883252174</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-na-freguesia-882814696</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-apartamento-4-quartos-oportunidade-unica-881306477</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-cidade-jardim-reserva-jardim-varandao-3qtos-881245039</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-oportunidade-no-village-vert-02-quartos-877573304</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/grand-family-03-quartos-875415782</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/melhor-salao-tres-quartos-freguesia-suite-com-hidro-e-vaga-de-garagem-892497445</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-1-750-00-722841201</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-1-800-00-891351951</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/beach-plus-apartamento-de-3-quartos-com-suite-proximo-transolimpica-real-imoveis-rj-822331846</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-condominio-clube-887511868</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-freguesia-858572853</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-frap30081-806310575</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-cod-lc0183101-845803718</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al376-896639886</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/404-3-estrelas-full-condominium-lindo-3-quartos-896341310</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-3-quartos-mobiliado-com-garagem-perto-de-tudo-887708670</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-na-freguesia-jacarepagua-837080205</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-4159-884047617</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-mobiliado-na-freguesia-766121275</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-872032752</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-33283-872015454</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-211-m-freguesia-jacarepagua-rio-de-janeiro-rj-865616471</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluga-coberturas-duplex-de-4-quartos-com-ate-3-suites-na-estrada-do-bananal-freguesia-864698829</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-105-m-por-r-2-800-00-freguesia-jacarepagua-rio-de-janeiro-812167145</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-vert-cobertura-com-4-suites-856462877</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-grand-village-cobertura-com-3-quartos-856415396</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-de-duplex-de-3-qts-c-2-vgas-na-barra-761530022</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-87-ra-loc-ve-2-1031928-822478177</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ressi-union-home-3qts-97m-aluguel-e-venda-na-barra-784774525</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-780770954</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-estr-do-bananal-cond-village-florenca-cobertura-duplex-3-quartos-com-total-la-780770871</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-4-qts-3-suites-c-187m-na-freguesia-714368468</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-florenca-alugo-ou-vendo-cobertura-na-freguesia-771188528</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-lindo-cobertura-com-4-quartos-771072160</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-linda-cobertura-com-3-quartos-771069465</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-150-m-por-r-4-100-00-mes-barra-da-tijuca-678716268</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-03-quartos-01-suite-freguesia-634868811</t>
@@ -367,157 +442,13 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-94-m-freguesia-jacarepagua-rio-de-janeir-593374927</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-apartamento-com-3-quartos-em-jacarepagua-892550725</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-na-rua-aroazes-vista-livre-e-em-porcelanato-no-villas-da-barra-872236762</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-na-freguesia-882814696</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio2-vista-lagoa-e-lazer-3qtos-armarios-planejados-andar-alto-892163418</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-em-condominio-com-infraestrutura-completa-887185040</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al1309-897134633</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-8084-891981750</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/barra-da-tijuca-r-2-300-00-885715690</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-mobiliado-na-freguesia-766121275</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-na-freguesia-jacarepagua-rua-araguaia-886370392</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-aluguel-e-venda-na-rua-potiguara-freguesia-883314464</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ape-3-quartos-com-1-suite-e-varanda-na-freguesia-84m-883252174</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-2-500-00-898353409</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-mia3ap15256-873880211</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-2-genova-800773986</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-suites-freguesia-894885507</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-rlap30311-889150920</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-oportunidade-no-village-vert-02-quartos-877573304</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ressi-union-home-3qts-97m-aluguel-e-venda-na-barra-784774525</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/raridade-aroazes-sol-da-manha-vista-parque-olimpico-898507379</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-barra-da-tijuca-3-dormitorios-1-suite-2-ban-788825439</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-33283-872015454</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-105-m-por-r-2-800-00-freguesia-jacarepagua-rio-de-janeiro-812167145</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-duplex-para-locacao-via-flamboyant-887725482</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-apartamento-4-quartos-oportunidade-unica-881306477</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-linda-cobertura-com-3-quartos-771069465</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/vendo-ou-alugo-apartamento-no-estrelas-full-886524438</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-872032752</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-lindo-cobertura-com-4-quartos-771072160</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-4-000-00-mes-freguesia-jacarep-558973372</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-3-200-mes-freguesia-jacarepagu-558973358</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-130-m-2-vagas-na-garagem-rua-araguaia-freguesia-896322909</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-780770954</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-grand-village-cobertura-com-3-quartos-856415396</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rua-germiniano-de-goies-apartamento-com-3-dormitorios-para-alugar-143-m-por-r-3-500-me-887520408</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-rio-2-892379958</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-cobertura-2-3-quartos-815380931</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-estr-do-bananal-cond-village-florenca-cobertura-duplex-3-quartos-com-total-la-780770871</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-florenca-alugo-ou-vendo-cobertura-na-freguesia-771188528</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-190-m-por-r-3-500-00-mes-freguesia-jacarep-558973348</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-cidade-jardim-reserva-jardim-varandao-3qtos-881245039</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-cobertura-4-qts-na-freguesia-dois-meses-de-deposito-878196023</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-de-duplex-de-3-qts-c-2-vgas-na-barra-761530022</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-4-qts-3-suites-c-187m-na-freguesia-714368468</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-4-000-00-mes-freguesia-jacarep-558973372</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-150-m-por-r-4-100-00-mes-barra-da-tijuca-678716268</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-mes-freguesia-jacarepagua-892378865</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-00-mes-freguesia-jacarepag-884381234</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-211-m-freguesia-jacarepagua-rio-de-janeiro-rj-865616471</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluga-coberturas-duplex-de-4-quartos-com-ate-3-suites-na-estrada-do-bananal-freguesia-864698829</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-vert-cobertura-com-4-suites-856462877</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-87-ra-loc-ve-2-1031928-822478177</t>
   </si>
 </sst>
 </file>
@@ -888,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -927,10 +858,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -941,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -955,10 +886,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -969,10 +900,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -983,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -997,10 +928,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1011,10 +942,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1025,10 +956,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1039,10 +970,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1053,10 +984,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1067,10 +998,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1081,10 +1012,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1095,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1109,10 +1040,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1123,10 +1054,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1137,10 +1068,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1151,10 +1082,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1165,10 +1096,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1179,10 +1110,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1193,10 +1124,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1207,10 +1138,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1221,10 +1152,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1235,10 +1166,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1249,10 +1180,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1263,10 +1194,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1277,10 +1208,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1291,10 +1222,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1305,10 +1236,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1319,10 +1250,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1333,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1347,10 +1278,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1361,10 +1292,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1375,10 +1306,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1389,10 +1320,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1403,10 +1334,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1417,10 +1348,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1431,10 +1362,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1445,10 +1376,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1459,10 +1390,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1473,10 +1404,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1487,10 +1418,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1501,10 +1432,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1515,10 +1446,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1529,10 +1460,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1543,10 +1474,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1557,10 +1488,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1571,10 +1502,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1585,10 +1516,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1599,10 +1530,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1613,10 +1544,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1627,10 +1558,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1641,10 +1572,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1655,10 +1586,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1669,10 +1600,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1683,10 +1614,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1697,10 +1628,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1711,10 +1642,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1725,10 +1656,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1739,10 +1670,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1753,10 +1684,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1767,10 +1698,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1778,13 +1709,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1792,13 +1723,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1806,13 +1737,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1820,13 +1751,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1834,13 +1765,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1848,13 +1779,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1862,13 +1793,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1876,181 +1807,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2125,18 +1888,6 @@
     <hyperlink ref="D69" r:id="rId68"/>
     <hyperlink ref="D70" r:id="rId69"/>
     <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02-intermediate/33-RealStateFinderBot/aptos.xlsx
+++ b/02-intermediate/33-RealStateFinderBot/aptos.xlsx
@@ -25,220 +25,286 @@
     <t>links</t>
   </si>
   <si>
+    <t>Lindo 2Q + escritorio montado melhor ponto Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 88 m² por R$ 1.700,00/mês - Freguesia (Jacarepa</t>
+  </si>
+  <si>
+    <t>Lindo Apê 3 qts com 1 suíte - Freguesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand family 03 quartos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhor Salão Três quartos Freguesia suite com Hidro e vaga de garagem </t>
+  </si>
+  <si>
+    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 1.750,00</t>
+  </si>
+  <si>
+    <t>Apartamento - BARRA DA TIJUCA - R$ 1.800,00</t>
+  </si>
+  <si>
+    <t>Beach Plus | Apartamento de 3 quartos com suíte próximo Transolímpica | Real Imóveis RJ</t>
+  </si>
+  <si>
+    <t>Apartamento Condomínio Clube</t>
+  </si>
+  <si>
+    <t>Cobertura Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:FRAP30081</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, cod:lc0183101</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:AL376</t>
+  </si>
+  <si>
+    <t>404.3- Estrelas Full Condominium, lindo 3 quartos!</t>
+  </si>
+  <si>
+    <t>Freguesia. Lindo 3 quartos mobiliado com garagem. Perto de tudo.</t>
+  </si>
+  <si>
+    <t>Excelente apartamento na Freguesia /Jacarepaguá</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:4159</t>
+  </si>
+  <si>
+    <t>Excelente apt. 03 quartos ( 01 suíte) - Freguesia!</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 94 m² - Freguesia (Jacarepaguá) - Rio de Janeir</t>
+  </si>
+  <si>
+    <t>Aluguel -  Apartamento com 3 quartos em Jacarepaguá</t>
+  </si>
+  <si>
+    <t>Apartamento 3 quartos na Rua Aroazes vista livre e em porcelanato no Villas da Barra</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 quartos na Freguesia</t>
+  </si>
+  <si>
     <t>Rio2 | Vista Lagoa e Lazer | 3Qtos | Armários Planejados | Andar Alto</t>
   </si>
   <si>
     <t>Apartamento 3 quartos em condomínio com infraestrutura completa</t>
   </si>
   <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:AL1309</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:8084</t>
+  </si>
+  <si>
+    <t>Barra da Tijuca: R$ 2.300,00</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 quartos mobiliado na Freguesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento 4 quartos na Freguesia Jacarepaguá Rua Araguaia </t>
+  </si>
+  <si>
+    <t>Apartamento para aluguel e venda na Rua Potiguara, Freguesia</t>
+  </si>
+  <si>
+    <t>Apê 3 Quartos com 1 Suíte e Varanda na Freguesia - 84m²</t>
+  </si>
+  <si>
+    <t>Apartamento - BARRA DA TIJUCA - R$ 2.500,00</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:MIA3AP15256</t>
+  </si>
+  <si>
+    <t>Rio 2 - Gênova</t>
+  </si>
+  <si>
+    <t>Apartamento 3 suítes - Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:RLAP30311</t>
+  </si>
+  <si>
+    <t>Excelente Oportunidade no Village Vert, 02 quartos.</t>
+  </si>
+  <si>
+    <t>Ressi. Union Home 3Qts 97m² Aluguel e Venda na Barra</t>
+  </si>
+  <si>
     <t>Raridade Aroazes / Sol da manha / Vista Parque Olimpico</t>
   </si>
   <si>
-    <t>Apartamento - BARRA DA TIJUCA - R$ 2.500,00</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:AL1309</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:FRAP30081</t>
+    <t>Apartamento para Locação em Rio de Janeiro, Barra da Tijuca, 3 dormitórios, 1 suíte, 2 ban</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 4 dormitórios cod:33283</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar, 105 m² por R$ 2.800,00 - Freguesia (Jacarepaguá) - Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>cobertura duplex para locação via flamboyant</t>
+  </si>
+  <si>
+    <t>Freguesia lindo apartamento 4 quartos oportunidade única</t>
+  </si>
+  <si>
+    <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
+  </si>
+  <si>
+    <t>Vendo ou alugo apartamento no Estrelas full</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
+  </si>
+  <si>
+    <t>RG alugo ou vendo lindo cobertura com 4 quartos</t>
+  </si>
+  <si>
+    <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 3.200/mês - Freguesia (Jacarepagu</t>
+  </si>
+  <si>
+    <t>Apartamento 4 quartos, 130 m² , 2 vagas na garagem - Rua Araguaia, Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento</t>
+  </si>
+  <si>
+    <t>RG(Grand village) cobertura com 3 quartos</t>
   </si>
   <si>
     <t>Rua Germiniano de Goies /Apartamento com 3 dormitórios para alugar, 143 m² por R$ 3.500/mê</t>
   </si>
   <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:AL376</t>
-  </si>
-  <si>
-    <t>404.3- Estrelas Full Condominium, lindo 3 quartos!</t>
-  </si>
-  <si>
-    <t>Apartamento 4 quartos, 130 m² , 2 vagas na garagem - Rua Araguaia, Freguesia</t>
-  </si>
-  <si>
-    <t>Apartamento para Locação em Rio de Janeiro, Barra da Tijuca, 3 dormitórios, 1 suíte, 2 ban</t>
-  </si>
-  <si>
-    <t>Apartamento com 3 dormitórios para alugar, 88 m² por R$ 1.700,00/mês - Freguesia (Jacarepa</t>
+    <t>Aluguel -Rio 2</t>
+  </si>
+  <si>
+    <t>Apartamento Freguesia cobertura 2/3 quartos</t>
+  </si>
+  <si>
+    <t>Freguesia, Estr do Bananal, Cond Village Florença, cobertura duplex 3 quartos com total la</t>
+  </si>
+  <si>
+    <t>RG( Village Florença) Alugo ou vendo cobertura na Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 190 m² por R$ 3.500,00/mês - Freguesia (Jacarep</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO - Cidade Jardim - Reserva Jardim - varandão, 3qtos,</t>
   </si>
   <si>
     <t>Excelente Cobertura 4 qts na Freguesia! DOIS MESES DE DEPÓSITO!!</t>
   </si>
   <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, cod:lc0183101</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:MIA3AP15256</t>
-  </si>
-  <si>
-    <t>Rio 2 - Gênova</t>
-  </si>
-  <si>
-    <t>Apartamento 3 suítes - Freguesia</t>
-  </si>
-  <si>
-    <t>Apartamento - BARRA DA TIJUCA - R$ 1.800,00</t>
-  </si>
-  <si>
-    <t>Lindo Apê 3 qts com 1 suíte - Freguesia</t>
-  </si>
-  <si>
-    <t>Aluguel -  Apartamento com 3 quartos em Jacarepaguá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melhor Salão Três quartos Freguesia suite com Hidro e vaga de garagem </t>
-  </si>
-  <si>
-    <t>Aluguel -Rio 2</t>
+    <t>ME. Alugo Cobertura de Duplex de 3 qts c/ 2 Vgas na Barra!!!</t>
+  </si>
+  <si>
+    <t>ME. Alugo Cobertura 4 qts, 3 Suítes c/ 187m² na Freguesia!!!!</t>
+  </si>
+  <si>
+    <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 4.000,00/mês - Freguesia (Jacarep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento com 4 dormitórios para alugar, 150 m² por r$ 4.100,00/mês - barra da tijuca - </t>
   </si>
   <si>
     <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500/mês - Freguesia (Jacarepaguá)</t>
   </si>
   <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:8084</t>
-  </si>
-  <si>
-    <t>Apartamento Freguesia cobertura 2/3 quartos</t>
-  </si>
-  <si>
-    <t>Lindo 2Q + escritorio montado melhor ponto Freguesia</t>
-  </si>
-  <si>
-    <t>Beach Plus | Apartamento de 3 quartos com suíte próximo Transolímpica | Real Imóveis RJ</t>
-  </si>
-  <si>
-    <t>Apartamento 3 quartos na Rua Aroazes vista livre e em porcelanato no Villas da Barra</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios cod:RLAP30311</t>
-  </si>
-  <si>
-    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 1.750,00</t>
-  </si>
-  <si>
-    <t>cobertura duplex para locação via flamboyant</t>
-  </si>
-  <si>
-    <t>Freguesia. Lindo 3 quartos mobiliado com garagem. Perto de tudo.</t>
-  </si>
-  <si>
-    <t>Apartamento Condomínio Clube</t>
-  </si>
-  <si>
-    <t>Excelente apartamento na Freguesia /Jacarepaguá</t>
-  </si>
-  <si>
-    <t>Vendo ou alugo apartamento no Estrelas full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento 4 quartos na Freguesia Jacarepaguá Rua Araguaia </t>
-  </si>
-  <si>
-    <t>Barra da Tijuca: R$ 2.300,00</t>
-  </si>
-  <si>
-    <t>Cobertura Freguesia</t>
-  </si>
-  <si>
     <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500,00/mês - Freguesia (Jacarepag</t>
   </si>
   <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:4159</t>
-  </si>
-  <si>
-    <t>Apartamento para aluguel e venda na Rua Potiguara, Freguesia</t>
-  </si>
-  <si>
-    <t>Apê 3 Quartos com 1 Suíte e Varanda na Freguesia - 84m²</t>
-  </si>
-  <si>
-    <t>Apartamento de 3 quartos na Freguesia</t>
-  </si>
-  <si>
-    <t>Freguesia lindo apartamento 4 quartos oportunidade única</t>
-  </si>
-  <si>
-    <t>LOCAÇÃO - Cidade Jardim - Reserva Jardim - varandão, 3qtos,</t>
-  </si>
-  <si>
-    <t>Excelente Oportunidade no Village Vert, 02 quartos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand family 03 quartos </t>
-  </si>
-  <si>
-    <t>Apartamento de 3 quartos mobiliado na Freguesia</t>
-  </si>
-  <si>
-    <t>Cobertura</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 4 dormitórios cod:33283</t>
-  </si>
-  <si>
     <t>Cobertura com 4 dormitórios, 211 m² - Freguesia (Jacarepaguá) - Rio de Janeiro/RJ</t>
   </si>
   <si>
     <t>ALUGA COBERTURAS DUPLEX DE 4 QUARTOS COM ATÉ 3 SUÍTES NA ESTRADA DO BANANAL, FREGUESIA.</t>
   </si>
   <si>
-    <t>Apartamento para alugar, 105 m² por R$ 2.800,00 - Freguesia (Jacarepaguá) - Rio de Janeiro</t>
-  </si>
-  <si>
     <t>RG(Village vert) Cobertura com 4 suítes</t>
   </si>
   <si>
-    <t>RG(Grand village) cobertura com 3 quartos</t>
-  </si>
-  <si>
-    <t>ME. Alugo Cobertura de Duplex de 3 qts c/ 2 Vgas na Barra!!!</t>
-  </si>
-  <si>
     <t>Apartamento para alugar com 4 dormitórios cod:87-ra loc ve_2-1031928</t>
   </si>
   <si>
-    <t>Ressi. Union Home 3Qts 97m² Aluguel e Venda na Barra</t>
-  </si>
-  <si>
-    <t>Apartamento</t>
-  </si>
-  <si>
-    <t>Freguesia, Estr do Bananal, Cond Village Florença, cobertura duplex 3 quartos com total la</t>
-  </si>
-  <si>
-    <t>ME. Alugo Cobertura 4 qts, 3 Suítes c/ 187m² na Freguesia!!!!</t>
-  </si>
-  <si>
-    <t>RG( Village Florença) Alugo ou vendo cobertura na Freguesia</t>
-  </si>
-  <si>
-    <t>RG alugo ou vendo lindo cobertura com 4 quartos</t>
-  </si>
-  <si>
-    <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento com 4 dormitórios para alugar, 150 m² por r$ 4.100,00/mês - barra da tijuca - </t>
-  </si>
-  <si>
-    <t>Excelente apt. 03 quartos ( 01 suíte) - Freguesia!</t>
-  </si>
-  <si>
-    <t>Apartamento com 3 dormitórios para alugar, 94 m² - Freguesia (Jacarepaguá) - Rio de Janeir</t>
-  </si>
-  <si>
-    <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 4.000,00/mês - Freguesia (Jacarep</t>
-  </si>
-  <si>
-    <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 3.200/mês - Freguesia (Jacarepagu</t>
-  </si>
-  <si>
-    <t>Apartamento com 3 dormitórios para alugar, 190 m² por R$ 3.500,00/mês - Freguesia (Jacarep</t>
+    <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
   </si>
   <si>
     <t>Rio de Janeiro, Jacarepaguá</t>
   </si>
   <si>
-    <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-2q-escritorio-montado-melhor-ponto-freguesia-891054096</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-88-m-por-r-1-700-00-mes-freguesia-jacarepa-824993692</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-ape-3-qts-com-1-suite-freguesia-879547988</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/grand-family-03-quartos-875415782</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/melhor-salao-tres-quartos-freguesia-suite-com-hidro-e-vaga-de-garagem-892497445</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-1-750-00-722841201</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-1-800-00-891351951</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/beach-plus-apartamento-de-3-quartos-com-suite-proximo-transolimpica-real-imoveis-rj-822331846</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-condominio-clube-887511868</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-freguesia-858572853</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-frap30081-806310575</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-cod-lc0183101-845803718</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al376-896639886</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/404-3-estrelas-full-condominium-lindo-3-quartos-896341310</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-3-quartos-mobiliado-com-garagem-perto-de-tudo-887708670</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-na-freguesia-jacarepagua-837080205</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-4159-884047617</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-03-quartos-01-suite-freguesia-634868811</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-94-m-freguesia-jacarepagua-rio-de-janeir-593374927</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-apartamento-com-3-quartos-em-jacarepagua-892550725</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-na-rua-aroazes-vista-livre-e-em-porcelanato-no-villas-da-barra-872236762</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-na-freguesia-882814696</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio2-vista-lagoa-e-lazer-3qtos-armarios-planejados-andar-alto-892163418</t>
@@ -247,208 +313,142 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-em-condominio-com-infraestrutura-completa-887185040</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al1309-897134633</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-8084-891981750</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/barra-da-tijuca-r-2-300-00-885715690</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-mobiliado-na-freguesia-766121275</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-na-freguesia-jacarepagua-rua-araguaia-886370392</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-aluguel-e-venda-na-rua-potiguara-freguesia-883314464</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ape-3-quartos-com-1-suite-e-varanda-na-freguesia-84m-883252174</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-2-500-00-898353409</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-mia3ap15256-873880211</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-2-genova-800773986</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-suites-freguesia-894885507</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-rlap30311-889150920</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-oportunidade-no-village-vert-02-quartos-877573304</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ressi-union-home-3qts-97m-aluguel-e-venda-na-barra-784774525</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/raridade-aroazes-sol-da-manha-vista-parque-olimpico-898507379</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-2-500-00-898353409</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al1309-897134633</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-frap30081-806310575</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-barra-da-tijuca-3-dormitorios-1-suite-2-ban-788825439</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-33283-872015454</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-105-m-por-r-2-800-00-freguesia-jacarepagua-rio-de-janeiro-812167145</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-duplex-para-locacao-via-flamboyant-887725482</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-apartamento-4-quartos-oportunidade-unica-881306477</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-linda-cobertura-com-3-quartos-771069465</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/vendo-ou-alugo-apartamento-no-estrelas-full-886524438</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-872032752</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-lindo-cobertura-com-4-quartos-771072160</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-3-200-mes-freguesia-jacarepagu-558973358</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-130-m-2-vagas-na-garagem-rua-araguaia-freguesia-896322909</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-780770954</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-grand-village-cobertura-com-3-quartos-856415396</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rua-germiniano-de-goies-apartamento-com-3-dormitorios-para-alugar-143-m-por-r-3-500-me-887520408</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al376-896639886</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/404-3-estrelas-full-condominium-lindo-3-quartos-896341310</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-130-m-2-vagas-na-garagem-rua-araguaia-freguesia-896322909</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-barra-da-tijuca-3-dormitorios-1-suite-2-ban-788825439</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-88-m-por-r-1-700-00-mes-freguesia-jacarepa-824993692</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-rio-2-892379958</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-cobertura-2-3-quartos-815380931</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-estr-do-bananal-cond-village-florenca-cobertura-duplex-3-quartos-com-total-la-780770871</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-florenca-alugo-ou-vendo-cobertura-na-freguesia-771188528</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-190-m-por-r-3-500-00-mes-freguesia-jacarep-558973348</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-cidade-jardim-reserva-jardim-varandao-3qtos-881245039</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-cobertura-4-qts-na-freguesia-dois-meses-de-deposito-878196023</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-cod-lc0183101-845803718</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-mia3ap15256-873880211</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-2-genova-800773986</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-suites-freguesia-894885507</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-1-800-00-891351951</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-ape-3-qts-com-1-suite-freguesia-879547988</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-apartamento-com-3-quartos-em-jacarepagua-892550725</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/melhor-salao-tres-quartos-freguesia-suite-com-hidro-e-vaga-de-garagem-892497445</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-rio-2-892379958</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-de-duplex-de-3-qts-c-2-vgas-na-barra-761530022</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-4-qts-3-suites-c-187m-na-freguesia-714368468</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-4-000-00-mes-freguesia-jacarep-558973372</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-150-m-por-r-4-100-00-mes-barra-da-tijuca-678716268</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-mes-freguesia-jacarepagua-892378865</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-8084-891981750</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-cobertura-2-3-quartos-815380931</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-2q-escritorio-montado-melhor-ponto-freguesia-891054096</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/beach-plus-apartamento-de-3-quartos-com-suite-proximo-transolimpica-real-imoveis-rj-822331846</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-quartos-na-rua-aroazes-vista-livre-e-em-porcelanato-no-villas-da-barra-872236762</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-rlap30311-889150920</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-1-750-00-722841201</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-duplex-para-locacao-via-flamboyant-887725482</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-3-quartos-mobiliado-com-garagem-perto-de-tudo-887708670</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-condominio-clube-887511868</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-na-freguesia-jacarepagua-837080205</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/vendo-ou-alugo-apartamento-no-estrelas-full-886524438</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-na-freguesia-jacarepagua-rua-araguaia-886370392</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/barra-da-tijuca-r-2-300-00-885715690</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-freguesia-858572853</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-00-mes-freguesia-jacarepag-884381234</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-4159-884047617</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-aluguel-e-venda-na-rua-potiguara-freguesia-883314464</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ape-3-quartos-com-1-suite-e-varanda-na-freguesia-84m-883252174</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-na-freguesia-882814696</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-apartamento-4-quartos-oportunidade-unica-881306477</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-cidade-jardim-reserva-jardim-varandao-3qtos-881245039</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-oportunidade-no-village-vert-02-quartos-877573304</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/grand-family-03-quartos-875415782</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-mobiliado-na-freguesia-766121275</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-872032752</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-33283-872015454</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-211-m-freguesia-jacarepagua-rio-de-janeiro-rj-865616471</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluga-coberturas-duplex-de-4-quartos-com-ate-3-suites-na-estrada-do-bananal-freguesia-864698829</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-105-m-por-r-2-800-00-freguesia-jacarepagua-rio-de-janeiro-812167145</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-vert-cobertura-com-4-suites-856462877</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-grand-village-cobertura-com-3-quartos-856415396</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-de-duplex-de-3-qts-c-2-vgas-na-barra-761530022</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-87-ra-loc-ve-2-1031928-822478177</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ressi-union-home-3qts-97m-aluguel-e-venda-na-barra-784774525</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-780770954</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-estr-do-bananal-cond-village-florenca-cobertura-duplex-3-quartos-com-total-la-780770871</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-4-qts-3-suites-c-187m-na-freguesia-714368468</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-florenca-alugo-ou-vendo-cobertura-na-freguesia-771188528</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-lindo-cobertura-com-4-quartos-771072160</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-linda-cobertura-com-3-quartos-771069465</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-150-m-por-r-4-100-00-mes-barra-da-tijuca-678716268</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-03-quartos-01-suite-freguesia-634868811</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-94-m-freguesia-jacarepagua-rio-de-janeir-593374927</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-4-000-00-mes-freguesia-jacarep-558973372</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-3-200-mes-freguesia-jacarepagu-558973358</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-190-m-por-r-3-500-00-mes-freguesia-jacarep-558973348</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>78</v>
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>79</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>80</v>
@@ -970,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>84</v>
@@ -998,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>86</v>
@@ -1012,7 +1012,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>87</v>
@@ -1054,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>90</v>
@@ -1096,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>93</v>
@@ -1110,7 +1110,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>94</v>
@@ -1166,7 +1166,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>98</v>
@@ -1180,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>99</v>
@@ -1208,7 +1208,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>101</v>
@@ -1236,7 +1236,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>103</v>
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>104</v>
@@ -1306,7 +1306,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>108</v>
@@ -1320,7 +1320,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>109</v>
@@ -1334,7 +1334,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>110</v>
@@ -1390,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>114</v>
@@ -1404,7 +1404,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>115</v>
@@ -1418,7 +1418,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>116</v>
@@ -1446,7 +1446,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>118</v>
@@ -1474,7 +1474,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>120</v>
@@ -1502,7 +1502,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>122</v>
@@ -1516,7 +1516,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>123</v>
@@ -1530,7 +1530,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>124</v>
@@ -1544,7 +1544,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>125</v>
@@ -1572,7 +1572,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>127</v>
@@ -1628,7 +1628,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>131</v>
@@ -1670,7 +1670,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>134</v>
@@ -1698,7 +1698,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>136</v>
@@ -1712,7 +1712,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>137</v>
@@ -1754,7 +1754,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>140</v>
@@ -1768,7 +1768,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>141</v>
@@ -1782,7 +1782,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>142</v>
@@ -1796,7 +1796,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>143</v>
@@ -1810,7 +1810,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>144</v>
